--- a/math_proj_2.xlsx
+++ b/math_proj_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charumathibadrinath/Logistic_Regression_Math_22b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61079D7F-5611-FD4D-8A44-4B2767650C95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B142FAAD-F875-A340-B8C5-9D8BCB4E7464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1060" windowWidth="28040" windowHeight="16940" xr2:uid="{EABD4B79-6F6D-8245-9350-8BEC6A73F6CB}"/>
+    <workbookView xWindow="600" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{EABD4B79-6F6D-8245-9350-8BEC6A73F6CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6749B4-2D46-7346-9801-49411008A1B3}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
